--- a/File prueba git.xlsx
+++ b/File prueba git.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Desktop\Prueba Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="1">
   <si>
     <t>Hola mundo</t>
   </si>
@@ -344,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A1048542" workbookViewId="0">
+      <selection activeCell="A1048576" sqref="A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -357,6 +357,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048576" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
